--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置を実施した者の役割（ロール）を示すコードシステム</t>
+    <t>処置を実施した者の役割（ロール）を示す値セット</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRole_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_PractitionerRole_CS</t>
   </si>
 </sst>
 </file>
@@ -304,68 +307,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -387,28 +392,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Practiti" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP_PractitionerR" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -362,15 +365,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -392,28 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-procedure-performer-role-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Performer Role CodeSystem</t>
+    <t>JP Core Procedure Performer Role ValueSet</t>
   </si>
   <si>
     <t>Status</t>
